--- a/Plugin Alliance Plugin Reference Chart.xlsx
+++ b/Plugin Alliance Plugin Reference Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3153082B-F322-429B-9CA6-4F2A311DC53F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC3BE9E-FBFD-418B-9E75-988145AF20CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{4BF1B13A-EAEC-4FC8-9F5E-1961B91132D9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="PA Plugins" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PA Plugins'!$A$3:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PA Plugins'!$A$3:$C$131</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="285">
   <si>
     <t>Plugin Alliance Plugin Reference Chart</t>
   </si>
@@ -537,13 +537,364 @@
   </si>
   <si>
     <t>Vertigo VSM-3</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Officially endorsed and approved by Focusrite, the Studio Console plugin brings the world-class sound of the rare original desk to your DAW.</t>
+  </si>
+  <si>
+    <t>The original TMT channel strip. 72 different channels of analog sound, based on the iconic Neve VXS console owned by Brainworx Germany.</t>
+  </si>
+  <si>
+    <t>Officially approved by SOLID STATE LOGIC (SSL) - 72 channels of 4000E series, injected with patent-pending Tolerance Modeling Technology (TMT).</t>
+  </si>
+  <si>
+    <t>Officially approved by SSL. 72 different channels of 4000 G console sound with proportional Q! Injected with patent-pending Tolerance Modeling Technology (TMT).</t>
+  </si>
+  <si>
+    <t>Module-based channel strip, arrange the 3 modules to taste! Includes 1176-like FET compression, Pultec EQ and a pre-amp simulation.</t>
+  </si>
+  <si>
+    <t>Modeled using Brainworx' experience with analog audio gear, the bx_oberhausen is stacked with full polyphony (32 voices), TMT, M/S and a powerful set of effect modules.</t>
+  </si>
+  <si>
+    <t>Thorn is a virtual instrument that was designed to be easy to use and create really modern sounds. And it gets you there with just a few mouse clicks.</t>
+  </si>
+  <si>
+    <t>An incredibly simple plugin with just two parameters. bx_boom exists for only one purpose: to make your kick drums thunder!</t>
+  </si>
+  <si>
+    <t>Convert any mono signal to stereo with this frequency-optimized M/S upmixing plugin. Great for synths, guitars, vocals and snares!</t>
+  </si>
+  <si>
+    <t>Shape sub content while adding punch and body to any signal. Get it FREE!</t>
+  </si>
+  <si>
+    <t>The Holy Grail for Bass Fanatics! Generate sub, punch and saturation; modeled after the heart of a dbx 120XP subharmonic synthesizer.</t>
+  </si>
+  <si>
+    <t>Next level transient shaping tool. Manage the attack and sustain of your signals with more precision than ever.</t>
+  </si>
+  <si>
+    <t>Noveltech CHARACTER intelligently enhances the tonal spectrum and dynamics(!) found in the signal. No nonsense auto-improvement tool.</t>
+  </si>
+  <si>
+    <t>Polish the most important signal in your mixes. Easy, with professional results.</t>
+  </si>
+  <si>
+    <t>SPL De-Esser Collection. They remove undesired sibilant frequencies precisely without compromising the timbre and character of your vocals. The most musically sounding De-Essers!</t>
+  </si>
+  <si>
+    <t>The De-Verb Plus Microplug employs SPL’s renowned Transient Designer processing to seamlessly pull room tone and/or reverb out of your audio.</t>
+  </si>
+  <si>
+    <t>DrumXchanger utilizes 2 SPL Transient Designers to make replacing drums in real-time (!) a snap.</t>
+  </si>
+  <si>
+    <t>Enhance the Sustain of any audio signal! Great on snares and keys</t>
+  </si>
+  <si>
+    <t>The King of Level-Independent Transient Control! Adjust Attack and Sustain of anything. Snares other drums, piano, masters, etc.</t>
+  </si>
+  <si>
+    <t>BYOME (Build Your Own Modular Effect) is the ultimate modular effects processor. It combines Unfiltered's endless modulation options with a collection of over 40 effect modules.</t>
+  </si>
+  <si>
+    <t>A highly versatile distortion plugin with a full battery of wave-shaping and sound design tools.</t>
+  </si>
+  <si>
+    <t>Warp Your Audio in Exciting New Ways - Creative Pitch Shifting and Modulation deluxe!</t>
+  </si>
+  <si>
+    <t>Intuitive and sleek saturation/tone box with a powerful modulation system.</t>
+  </si>
+  <si>
+    <t>A spectral toolkit of mix processors, sweeteners, and sound manglers that slices, dices, and dissects your audio with surgical precision.</t>
+  </si>
+  <si>
+    <t>BYOME’s multi-band big brother. TRIAD combines state of the art processing, versatile modulation and dozens of effects.</t>
+  </si>
+  <si>
+    <t>The Lamborghini of creative compression sounds. Process your audio based on quietness or darkness? Yes, and more!</t>
+  </si>
+  <si>
+    <t>ACME’s vivid Opto Compressor, full of Mojo and Harmonic Coloration!</t>
+  </si>
+  <si>
+    <t>Professional low-latency limiter for mono &amp; stereo channels. Catch transients on stems &amp; busses, save your mastering limiter some work. Get cleaner mixes!</t>
+  </si>
+  <si>
+    <t>#1 Best-Selling Plugin of 2018! A complete analog mastering desk in your DAW! Easy and Professional.</t>
+  </si>
+  <si>
+    <t>Extremely musical Optical Compressor from Brainworx delivers artifact-free opto-tone for days</t>
+  </si>
+  <si>
+    <t>In 1978 the Townhouse Studio crew in London built a Buss Compressor from legendary console parts. The perfect fit for our SSL 4000 E/G bx_console plugins.</t>
+  </si>
+  <si>
+    <t>The New Loud! bx_XL V2 is an M/S stereo mastering limiter which makes your mixes competitively loud while retaining desirable dynamics!</t>
+  </si>
+  <si>
+    <t>The alpha compressor plugin is a faithful software reincarnation of elysia’s legendary $10,000 analog M/S mastering compressor.</t>
+  </si>
+  <si>
+    <t>With ground-breaking features like a gain reduction limiter and negative ratios, the mpressor redefines what a compressor can do.</t>
+  </si>
+  <si>
+    <t>The Classic English Analog Limiter, inspired by the legendary NEVE® 2254E™. The sound of Rock'n’Roll for the Master Buss, Drums, Guitar group, etc.</t>
+  </si>
+  <si>
+    <t>Multi-Band M/S Compressor based on the Vintage Vibe of the Neve® 2254E™</t>
+  </si>
+  <si>
+    <t>Lindell brings vintage “76” style FET based compression tone and lightning fast attack time to this native plugin.</t>
+  </si>
+  <si>
+    <t>MAGNUM-K is a dual Compressor + Limiter ft. the famous AIR BAND®! Made by Brainworx and injected with patent-pending TMT (Tolerance Modeling Technology).</t>
+  </si>
+  <si>
+    <t>Faithful emulation of this purist-design, $3500 Hardware Opto-Compressor.</t>
+  </si>
+  <si>
+    <t>Pro Audio DSP DSM V3 is a unique multiband processor. Capture the characteristics of any source, and apply it to any other sound. Incredible Mastering Tool!</t>
+  </si>
+  <si>
+    <t>Super fast response time and an impeccable, all-discrete signal path. The Purple Audio MC77 plugin is a classic dynamics tool on steroids!</t>
+  </si>
+  <si>
+    <t>The King of Compression from Shadow Hills Industries. New &amp; Enhanced with External SC, Parallel Mix and more.</t>
+  </si>
+  <si>
+    <t>Punch up the attack of percussive sounds with this Microplug featuring the attack portion of SPL’s Transient Designer Plus.</t>
+  </si>
+  <si>
+    <t>Utilizing Brainworx expertise in precise modeling of complex analog circuits, SPL now brings this versatile tool into your DAW preserving its unique sound and character.</t>
+  </si>
+  <si>
+    <t>Gate your tracks and unlock your mind with this useful, incredibly innovative and creative tool.</t>
+  </si>
+  <si>
+    <t>The classic tone of the best VCA compressors from the 70s and 80s with a modern, mastering quality signal path.</t>
+  </si>
+  <si>
+    <t>Inspired by the famous Amek 9098 EQ with the addition of Brainworx' patent-pending TMT and M/S processing</t>
+  </si>
+  <si>
+    <t>bx_cleansweep Pro’s huge selection of HP &amp; LP filter types will clean up your tracks and open new creative possibilities.</t>
+  </si>
+  <si>
+    <t>Extremely powerful Hi/Lo-Pass filters using advanced Brainworx technology.</t>
+  </si>
+  <si>
+    <t>The M/S EQ! Future Music’s “Plugin of the Decade” gets a raft of new features for V3. Mono &amp; Stereo versions included!</t>
+  </si>
+  <si>
+    <t>A truly new approach to dynamic EQ. Innovative M/S cross-trigger features for results simply not possible with any other Equalizer.</t>
+  </si>
+  <si>
+    <t>This powerful 11-band EQ allows you to quickly identify and fix problem frequencies. It offers analog audio quality and digital DNA.</t>
+  </si>
+  <si>
+    <t>The Panoramic EQ by BX allows you to adjust frequencies at any discrete position of the stereo field. Must-Have plugin for Mix, Mastering and Sound Design.</t>
+  </si>
+  <si>
+    <t>One of the most musical EQs on the planet. Hard to beat on the master buss or during tracking. Plugin made by Brainworx!</t>
+  </si>
+  <si>
+    <t>The museq plugin puts elysia's musical equalizer straight into your DAW, with all the tone and functionality of the original hardware. And then some.</t>
+  </si>
+  <si>
+    <t>A super simple tone control that works like a set of scales. When you add highs you reduce lows and vice versa. Extremely useful and totally FREE!</t>
+  </si>
+  <si>
+    <t>Lindell brings the sweet musical sound of the legendary Pultec EQ to a plugin.</t>
+  </si>
+  <si>
+    <t>The classic 1960's all-tube UE-100 Universal Equalizer from Klein &amp; Hummel™ in a plugin!</t>
+  </si>
+  <si>
+    <t>A super musical analog 500 Series EQ. Transforms complexity into simplicity!</t>
+  </si>
+  <si>
+    <t>The perfect compliment to the legendary EQ4 and a great standalone EQ.</t>
+  </si>
+  <si>
+    <t>The wonder EQ from Mäag Audio. Adds that magic “AIR” to your Vocal Tracks and the Master Buss.</t>
+  </si>
+  <si>
+    <t>Millennia’s premium mixing/mastering EQ lets you choose between ultra-transparent tube and solid-state signal paths.</t>
+  </si>
+  <si>
+    <t>181 genre &amp; instrument-specific EQ modules! There’s never been a faster path to professional EQ sound.</t>
+  </si>
+  <si>
+    <t>Super Simple 4-band graphic EQ with musical curves and an unbeatable price – FREE!</t>
+  </si>
+  <si>
+    <t>The first hardware passive EQ with 3 separate frequency ranges for both boost and cut is available as a1:1 plugin emulation!</t>
+  </si>
+  <si>
+    <t>Emulation of a rare analog Delay from 1980. The ADA STD-1 is loved for its ability to transform and widen guitars, vocals, drums and much more. It features an array of six bucket-brigade delays with flexible panning, modulation and LFO controls.</t>
+  </si>
+  <si>
+    <t>The bx_delay 2500 is an innovative delay plugin with signature Brainworx M/S and effects processing like Ducking &amp; Distortion. Your new go to delay plugin!</t>
+  </si>
+  <si>
+    <t>The M/S Reverb by Brainworx. Ultra-low on the CPU, can be used traditionally (Send) or even as an Insert FX on individual tracks!</t>
+  </si>
+  <si>
+    <t>An echo powerhouse in a tiny package with built-in filtering, saturation, and a powerfully intuitive modulation system.</t>
+  </si>
+  <si>
+    <t>This incredible delay does everything you ever wanted a plugin to do - as well as a myriad of things you never imagined a delay could.</t>
+  </si>
+  <si>
+    <t>A Swiss Army knife delay unit that doubles as a transmogrifying time machine for your sonic travels</t>
+  </si>
+  <si>
+    <t>The 30-watt, 1X15 all-tube power machine is filled with character, giving you a thick fundamental note that has been responsible for huge records from the ’60s until today. The #1 re-amping amp in many high-end studios!</t>
+  </si>
+  <si>
+    <t>The Modern Ampeg. A true powerhouse in countless bass setups of legends like Metallica, Primus and Bootsy Collins. The SVT-3PRO is still a bass amp in a league of its own.</t>
+  </si>
+  <si>
+    <t>Ampeg SVT-VR! The Biggest, Nastiest Bass Amplifier the world has ever seen! Paired with a 8x10 cabinet (included) this thing moves some serious air!</t>
+  </si>
+  <si>
+    <t>The Ampeg V–4B All-Tube Bass Amp. A faithful reissue of the 1971 original SVT. Delivering thick tube tone that can be heard on countless hits!</t>
+  </si>
+  <si>
+    <t>A faithful emulation of the legendary American amp that became the foundation for generations of rock ‘n roll amplifier design.</t>
+  </si>
+  <si>
+    <t>A faithful emulation of perhaps the most popular boutique tube guitar amp ever built.</t>
+  </si>
+  <si>
+    <t>A faithful emulation of a the legendary sound of a tube rectifier guitar amp.</t>
+  </si>
+  <si>
+    <t>Eight (8) guitar &amp; bass amps, rivaling high-end DSP systems. Includes one original ENGL and the BX Metal 666!</t>
+  </si>
+  <si>
+    <t>A powerful dose of 26 professionally designed presets that implement all eight amps from bx_rockrack V3– totally free.</t>
+  </si>
+  <si>
+    <t>Classic Tube Amp Tones with a Modern Twist</t>
+  </si>
+  <si>
+    <t>The Metal Monster DIEZEL is known and loved for around the globe. But get ready for some of the cleanest clean sounds you have heard in the box as well!</t>
+  </si>
+  <si>
+    <t>The iconic first DIEZEL amp that started it all! The VH4 revolutionized the industry with its 4-Channel design and its raw power.</t>
+  </si>
+  <si>
+    <t>The ENGL E646 VS delivers the tones required for modern metal - from crystal cleans to high gain goodness. And much more</t>
+  </si>
+  <si>
+    <t>The amp you should hear! Singing Distortion &amp; Crunchy Rock Riffs, as well as sparkling cleans.</t>
+  </si>
+  <si>
+    <t>A true master of adding breathtaking bucket-brigade analog flanging to guitars and synths. Create musical modulation for vocal and drum tracks. The A/DA Flanger is still at the top of its game when it comes to all things flanging, after all these decades!</t>
+  </si>
+  <si>
+    <t>This exacting emulation of the classic ProCo Sound RAT 2™ stomp pedal provides instantly recognizable guitar tones.</t>
+  </si>
+  <si>
+    <t>The rich, smooth chorus of the classic “Blue” pedal in plugin form.</t>
+  </si>
+  <si>
+    <t>Snarling, grinding distortion relied on by artists ranging from Kurt Cobain to Steve Vai.</t>
+  </si>
+  <si>
+    <t>The most popular overdrive pedal ever made, faithfully re-created as a plugin.</t>
+  </si>
+  <si>
+    <t>This exacting emulation of the Boss MT-2™ stomp pedal gives you anything from clean guitar tones to total metal mayhem.</t>
+  </si>
+  <si>
+    <t>A simple-to-use version of Brainworx’s Optical Compression Tone Monster. Great on guitars, vocals and even drums.</t>
+  </si>
+  <si>
+    <t>Intelligent M/S width for doubled riff guitars. Auto-avoid common phase problems, and sound extra-wide and tight!</t>
+  </si>
+  <si>
+    <t>Accurate tuning for guitar &amp; bass with useful features like volume dimming. Tune up right before you hit the record button.</t>
+  </si>
+  <si>
+    <t>Warm to crunch to shred with this classic “Yellow” pedal in plugin form.</t>
+  </si>
+  <si>
+    <t>Mix your music in 3D! In any DAW, and all you need is a set of headphones!</t>
+  </si>
+  <si>
+    <t>The professional 3D Audio solution for sound designers and music professionals in the VR/AR industry.</t>
+  </si>
+  <si>
+    <t>Next-gen spatial augmentation tool that supercharges the stereo image of your mixes.</t>
+  </si>
+  <si>
+    <t>SCHOEPS Mono Upmix: From Mono To Stereo &amp; LCR. Improve your flexibility when working with mono sources in a mix.</t>
+  </si>
+  <si>
+    <t>Mastering Grade Tube Saturation &amp; Harmonics. Meet your mix buss’ new best friend!</t>
+  </si>
+  <si>
+    <t>Tame nasty high frequency harshness. Add sparkling presence and life with precision.</t>
+  </si>
+  <si>
+    <t>Flexible M/S Multi-Band Saturation plugin, to get your mixes and signals to cut through.</t>
+  </si>
+  <si>
+    <t>elysia’s charismatic M/S coloring box adds tame to twisted shades of saturation and tube-inspired tone.</t>
+  </si>
+  <si>
+    <t>elysia Phil's Cascade is a plugin based on a one-off prototype hardware, which was built exclusively to be modeled! Esoteric components from the last century!</t>
+  </si>
+  <si>
+    <t>The tone of the original transformer-coupled preamplifier and passive 2 band EQ are captured in the plugin version.</t>
+  </si>
+  <si>
+    <t>Tube Tone and Warmth in an easy, smooth way. Make your bass drums, guitars and vocals stick out.</t>
+  </si>
+  <si>
+    <t>Patented, un-masking EQ from Germany - a modern classic. Enhance your master buss and individual signals.</t>
+  </si>
+  <si>
+    <t>Mastering Grade Saturation and M/S processing. The VSM-3 is a digital emulation of a $7k hardware unit!</t>
+  </si>
+  <si>
+    <t>Compare your mix to any reference mix in real-time, with a simple click of the A/B button. It’s designed to provide you with a clear, intuitive workflow and unique analysis tools.</t>
+  </si>
+  <si>
+    <t>M/S Stereo Field Enhancement plus Sophisticated Monitoring and Metering.</t>
+  </si>
+  <si>
+    <t>Sophisticated Peak, RMS and Dynamic Range meter provides a detailed look at your audio signal, which will help improve the sound of your mixes.</t>
+  </si>
+  <si>
+    <t>Powerful free tool to get you started with M/S! Includes legendary M/S technology found in Brainworx’s products like bx_control V2.</t>
+  </si>
+  <si>
+    <t>The SCHOEPS Double MS plugin allows you to decode the three microphone signals of a Double-MS setup. Tailor-made intuitive matrixing on board.</t>
+  </si>
+  <si>
+    <t>This meter tool by SPL stands out with special functions to analyze high resolution audio and the ability to arrange the plugin-components freely on your screen!</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
+  <si>
+    <t>Pro Audio DSP DSM V2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +912,14 @@
     </font>
     <font>
       <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -593,10 +952,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,7 +1271,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2CADB8-429B-4C60-869C-A6428D285736}">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,12 +1282,12 @@
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -937,8 +1297,11 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -948,8 +1311,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -959,8 +1325,11 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -970,8 +1339,11 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -981,8 +1353,11 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -992,8 +1367,11 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1003,8 +1381,11 @@
       <c r="C9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1014,8 +1395,11 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1025,8 +1409,11 @@
       <c r="C11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1036,8 +1423,11 @@
       <c r="C12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1047,8 +1437,11 @@
       <c r="C13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1058,8 +1451,11 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1069,8 +1465,11 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1080,8 +1479,11 @@
       <c r="C16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1091,8 +1493,11 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1102,8 +1507,11 @@
       <c r="C18" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1113,19 +1521,25 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1135,19 +1549,25 @@
       <c r="C21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1157,8 +1577,11 @@
       <c r="C23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1168,8 +1591,11 @@
       <c r="C24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1179,8 +1605,11 @@
       <c r="C25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1190,8 +1619,11 @@
       <c r="C26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1201,8 +1633,11 @@
       <c r="C27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1212,8 +1647,11 @@
       <c r="C28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -1223,8 +1661,11 @@
       <c r="C29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -1234,8 +1675,11 @@
       <c r="C30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -1245,8 +1689,11 @@
       <c r="C31" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1256,8 +1703,11 @@
       <c r="C32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -1267,8 +1717,11 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1278,8 +1731,11 @@
       <c r="C34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1289,8 +1745,11 @@
       <c r="C35" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1759,11 @@
       <c r="C36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1311,8 +1773,11 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1322,8 +1787,11 @@
       <c r="C38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1333,8 +1801,11 @@
       <c r="C39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1344,8 +1815,11 @@
       <c r="C40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1355,8 +1829,11 @@
       <c r="C41" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -1366,8 +1843,11 @@
       <c r="C42" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1377,8 +1857,11 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1388,8 +1871,11 @@
       <c r="C44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1399,8 +1885,11 @@
       <c r="C45" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1410,8 +1899,11 @@
       <c r="C46" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1421,8 +1913,11 @@
       <c r="C47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1432,8 +1927,11 @@
       <c r="C48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1443,8 +1941,11 @@
       <c r="C49" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1454,8 +1955,11 @@
       <c r="C50" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1465,8 +1969,11 @@
       <c r="C51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -1476,8 +1983,11 @@
       <c r="C52" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1997,11 @@
       <c r="C53" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -1498,8 +2011,11 @@
       <c r="C54" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1509,8 +2025,11 @@
       <c r="C55" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -1520,8 +2039,11 @@
       <c r="C56" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -1531,8 +2053,11 @@
       <c r="C57" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1542,8 +2067,11 @@
       <c r="C58" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +2081,11 @@
       <c r="C59" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
@@ -1564,8 +2095,11 @@
       <c r="C60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -1575,8 +2109,11 @@
       <c r="C61" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -1586,8 +2123,11 @@
       <c r="C62" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -1597,8 +2137,11 @@
       <c r="C63" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -1608,8 +2151,11 @@
       <c r="C64" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -1619,8 +2165,11 @@
       <c r="C65" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -1630,8 +2179,11 @@
       <c r="C66" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -1641,8 +2193,11 @@
       <c r="C67" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -1652,8 +2207,11 @@
       <c r="C68" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -1663,8 +2221,11 @@
       <c r="C69" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -1674,8 +2235,11 @@
       <c r="C70" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -1685,8 +2249,11 @@
       <c r="C71" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -1696,8 +2263,11 @@
       <c r="C72" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -1707,8 +2277,11 @@
       <c r="C73" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -1718,8 +2291,11 @@
       <c r="C74" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -1729,8 +2305,11 @@
       <c r="C75" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -1740,8 +2319,11 @@
       <c r="C76" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>99</v>
       </c>
@@ -1751,8 +2333,11 @@
       <c r="C77" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>99</v>
       </c>
@@ -1762,8 +2347,11 @@
       <c r="C78" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -1773,8 +2361,11 @@
       <c r="C79" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>104</v>
       </c>
@@ -1784,8 +2375,11 @@
       <c r="C80" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -1795,8 +2389,11 @@
       <c r="C81" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -1806,8 +2403,11 @@
       <c r="C82" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -1817,8 +2417,11 @@
       <c r="C83" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>104</v>
       </c>
@@ -1828,8 +2431,11 @@
       <c r="C84" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -1839,8 +2445,11 @@
       <c r="C85" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>104</v>
       </c>
@@ -1850,8 +2459,11 @@
       <c r="C86" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -1861,8 +2473,11 @@
       <c r="C87" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -1872,8 +2487,11 @@
       <c r="C88" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>114</v>
       </c>
@@ -1883,8 +2501,11 @@
       <c r="C89" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>114</v>
       </c>
@@ -1894,8 +2515,11 @@
       <c r="C90" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>118</v>
       </c>
@@ -1905,8 +2529,11 @@
       <c r="C91" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -1916,8 +2543,11 @@
       <c r="C92" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>121</v>
       </c>
@@ -1927,8 +2557,11 @@
       <c r="C93" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>121</v>
       </c>
@@ -1938,405 +2571,531 @@
       <c r="C94" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="D94" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" t="s">
         <v>125</v>
-      </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" t="s">
-        <v>127</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>128</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C98" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>128</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C99" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" t="s">
+        <v>83</v>
+      </c>
+      <c r="D100" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>132</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>133</v>
-      </c>
-      <c r="C100" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>134</v>
-      </c>
-      <c r="B101" t="s">
-        <v>135</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>134</v>
       </c>
       <c r="B102" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>134</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>134</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>134</v>
       </c>
       <c r="B105" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>134</v>
       </c>
       <c r="B106" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C106" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D107" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>134</v>
       </c>
       <c r="B108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C108" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>134</v>
       </c>
       <c r="B109" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C109" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D109" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>134</v>
       </c>
       <c r="B111" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D112" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>134</v>
       </c>
       <c r="B113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>134</v>
       </c>
       <c r="B114" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D114" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>134</v>
       </c>
       <c r="B115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D115" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C116" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>151</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>152</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C118" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>153</v>
-      </c>
-      <c r="B118" t="s">
-        <v>154</v>
-      </c>
-      <c r="C118" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>153</v>
       </c>
       <c r="B119" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C119" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>153</v>
       </c>
       <c r="B120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C120" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>153</v>
       </c>
       <c r="B121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D121" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>153</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>153</v>
       </c>
       <c r="B123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D123" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>153</v>
       </c>
       <c r="B125" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>153</v>
       </c>
       <c r="B126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>153</v>
       </c>
       <c r="B127" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C127" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>153</v>
       </c>
       <c r="B128" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C128" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C129" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D129" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>165</v>
       </c>
       <c r="B130" t="s">
+        <v>166</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>165</v>
+      </c>
+      <c r="B131" t="s">
         <v>167</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>23</v>
       </c>
+      <c r="D131" t="s">
+        <v>276</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C3" xr:uid="{5F29D25C-36FE-4F76-8307-A918A8C6E903}"/>
+  <autoFilter ref="A3:C131" xr:uid="{5F29D25C-36FE-4F76-8307-A918A8C6E903}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plugin Alliance Plugin Reference Chart.xlsx
+++ b/Plugin Alliance Plugin Reference Chart.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC3BE9E-FBFD-418B-9E75-988145AF20CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA47D04-ED91-4BB3-8B22-BD6A18A0B998}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{4BF1B13A-EAEC-4FC8-9F5E-1961B91132D9}"/>
   </bookViews>
   <sheets>
     <sheet name="PA Plugins" sheetId="1" r:id="rId1"/>
+    <sheet name="Examples" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PA Plugins'!$A$3:$C$131</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="312">
   <si>
     <t>Plugin Alliance Plugin Reference Chart</t>
   </si>
@@ -888,6 +889,87 @@
   </si>
   <si>
     <t>Pro Audio DSP DSM V2</t>
+  </si>
+  <si>
+    <t>Vocals</t>
+  </si>
+  <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>Guitar</t>
+  </si>
+  <si>
+    <t>Overheads</t>
+  </si>
+  <si>
+    <t>Toms</t>
+  </si>
+  <si>
+    <t>HiHat</t>
+  </si>
+  <si>
+    <t>Keyboards</t>
+  </si>
+  <si>
+    <t>Kick and Snare</t>
+  </si>
+  <si>
+    <t>Drum Buss</t>
+  </si>
+  <si>
+    <t>Drum Crush</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>Mix Buss</t>
+  </si>
+  <si>
+    <t>Extra gain/Volme</t>
+  </si>
+  <si>
+    <t>UREI LA-2A in limiter mode &gt; UREI 1176LN about 12:1 &gt; Pulteq EQP1A3 &gt; Eventide H3000SE (MicroPitchShift preset)</t>
+  </si>
+  <si>
+    <t>Clean channel(s) and a saturated (distorted channel)</t>
+  </si>
+  <si>
+    <t>UREI LA-3A compressor on Guitar Buss</t>
+  </si>
+  <si>
+    <t>DBX160VU</t>
+  </si>
+  <si>
+    <t>UREI 1178</t>
+  </si>
+  <si>
+    <t>1176LN</t>
+  </si>
+  <si>
+    <t>Neve 33609c</t>
+  </si>
+  <si>
+    <t>API2500</t>
+  </si>
+  <si>
+    <t>SSL4000E Channel, where you can add more compression if needed as well</t>
+  </si>
+  <si>
+    <t>SSL4000E Channel</t>
+  </si>
+  <si>
+    <t>SSL G Channel</t>
+  </si>
+  <si>
+    <t>Crane Song STC-8</t>
+  </si>
+  <si>
+    <t>Below are examples of what plugin can be useful for certain types of audio/instrument</t>
+  </si>
+  <si>
+    <t>Walter Riggi</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1355,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2CADB8-429B-4C60-869C-A6428D285736}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3098,4 +3182,138 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054DA41C-4733-45D3-BF41-97DF1039E5C1}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="104" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>